--- a/Dec5.xlsx
+++ b/Dec5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17880" yWindow="460" windowWidth="20300" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="15720" yWindow="460" windowWidth="20300" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -379,117 +379,6 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>idea curvature</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:strRef>
-              <c:f>Sheet1!$B$1:$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>ts11</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ts12</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ts13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ts14</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ts15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ts16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>ts17</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ts18</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>ts19</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>ts110</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$5:$K$5</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.833333333333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.555555555555556</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.384615384615385</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.263157894736842</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.178571428571429</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.121951219512195</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0833333333333333</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0568181818181818</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0387596899224806</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-2075687680"/>
-        <c:axId val="-2074413008"/>
-      </c:scatterChart>
-      <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -993,8 +882,119 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2075687680"/>
-        <c:axId val="-2074413008"/>
+        <c:axId val="-2044036560"/>
+        <c:axId val="-2044033408"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>idea curvature</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>ts11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ts12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ts13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ts14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ts15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ts16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ts17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ts18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ts19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ts110</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.555555555555556</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.384615384615385</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.263157894736842</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.178571428571429</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.121951219512195</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0568181818181818</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0387596899224806</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2044036560"/>
+        <c:axId val="-2044033408"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1208,11 +1208,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2085555088"/>
-        <c:axId val="-2074984432"/>
+        <c:axId val="-2044026960"/>
+        <c:axId val="-2044029968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2075687680"/>
+        <c:axId val="-2044036560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -1257,12 +1257,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2074413008"/>
+        <c:crossAx val="-2044033408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2074413008"/>
+        <c:axId val="-2044033408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -1320,12 +1320,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2075687680"/>
+        <c:crossAx val="-2044036560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2074984432"/>
+        <c:axId val="-2044029968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1335,12 +1335,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2085555088"/>
+        <c:crossAx val="-2044026960"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2085555088"/>
+        <c:axId val="-2044026960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1349,7 +1349,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2074984432"/>
+        <c:crossAx val="-2044029968"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1509,117 +1509,6 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>idea curvature</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:strRef>
-              <c:f>Sheet1!$B$1:$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>ts11</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ts12</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ts13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ts14</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ts15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ts16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>ts17</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ts18</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>ts19</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>ts110</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$5:$K$5</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.833333333333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.555555555555556</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.384615384615385</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.263157894736842</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.178571428571429</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.121951219512195</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0833333333333333</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0568181818181818</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0387596899224806</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-2092551472"/>
-        <c:axId val="2085620512"/>
-      </c:scatterChart>
-      <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -1837,8 +1726,119 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2092551472"/>
-        <c:axId val="2085620512"/>
+        <c:axId val="-2038972128"/>
+        <c:axId val="-2038969040"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>idea curvature</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>ts11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ts12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ts13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ts14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ts15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ts16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ts17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ts18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ts19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ts110</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.555555555555556</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.384615384615385</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.263157894736842</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.178571428571429</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.121951219512195</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0568181818181818</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0387596899224806</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2038972128"/>
+        <c:axId val="-2038969040"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1958,11 +1958,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2081579648"/>
-        <c:axId val="-2082879312"/>
+        <c:axId val="-2038962928"/>
+        <c:axId val="-2038965680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2092551472"/>
+        <c:axId val="-2038972128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -2007,12 +2007,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2085620512"/>
+        <c:crossAx val="-2038969040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2085620512"/>
+        <c:axId val="-2038969040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.3"/>
@@ -2071,12 +2071,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2092551472"/>
+        <c:crossAx val="-2038972128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2082879312"/>
+        <c:axId val="-2038965680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2086,12 +2086,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2081579648"/>
+        <c:crossAx val="-2038962928"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2081579648"/>
+        <c:axId val="-2038962928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2100,7 +2100,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2082879312"/>
+        <c:crossAx val="-2038965680"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3625,8 +3625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A63" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="142" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A74" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="142" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5527,22 +5527,46 @@
       <c r="A92" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="B92">
+        <v>0.6895</v>
+      </c>
       <c r="C92">
         <v>0.1673</v>
       </c>
       <c r="D92">
         <v>6.83E-2</v>
+      </c>
+      <c r="G92">
+        <v>0.64790000000000003</v>
+      </c>
+      <c r="H92">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="I92">
+        <v>8.0100000000000005E-2</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B93">
+        <v>0.64280000000000004</v>
+      </c>
       <c r="C93">
         <v>3.6600000000000001E-2</v>
       </c>
       <c r="D93">
         <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="G93">
+        <v>0.48570000000000002</v>
+      </c>
+      <c r="H93">
+        <v>2.87E-2</v>
+      </c>
+      <c r="I93">
+        <v>1.24E-2</v>
       </c>
     </row>
   </sheetData>
